--- a/Notes/2021-03-22 Configuration Names.xlsx
+++ b/Notes/2021-03-22 Configuration Names.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F072481-A713-49F4-8D1B-BF194B8861AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FACB0E-3C41-4292-AA3E-3AFDB15CD03B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{ACAFFC4F-D82F-46AE-9F3F-9C97D9F13030}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Require strong</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Permit omissions where necessary</t>
   </si>
   <si>
-    <t>Permit comissions where necessary</t>
-  </si>
-  <si>
     <t>Authorization</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>Utilitarian</t>
+  </si>
+  <si>
+    <t>(Not reasonable)</t>
+  </si>
+  <si>
+    <t>Permit commissions where necessary</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -604,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -655,12 +658,12 @@
         <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -680,10 +683,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -697,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -705,13 +708,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
